--- a/bill ID.xlsx
+++ b/bill ID.xlsx
@@ -461,9 +461,7 @@
           <t>H0238</t>
         </is>
       </c>
-      <c r="C2" t="n">
-        <v>1971315</v>
-      </c>
+      <c r="C2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
